--- a/transactions1.xlsx
+++ b/transactions1.xlsx
@@ -383,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
@@ -444,14 +444,19 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B10" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
     </row>
